--- a/CooperativaAgricolaBarcelos.xlsx
+++ b/CooperativaAgricolaBarcelos.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Metadata" sheetId="1" r:id="rId1"/>
+    <sheet name="ENTITY" sheetId="1" r:id="rId1"/>
     <sheet name="ROC-SROC" sheetId="2" r:id="rId2"/>
-    <sheet name="YEARINCOMESTATEMENT" sheetId="3" r:id="rId3"/>
-    <sheet name="YEARAPPLICATIONOFRESULTS" sheetId="4" r:id="rId4"/>
+    <sheet name="FINANCIALSTATEMENTS" sheetId="3" r:id="rId3"/>
+    <sheet name="APPLICATIONOFRESULTS" sheetId="4" r:id="rId4"/>
     <sheet name="BOARD" sheetId="5" r:id="rId5"/>
     <sheet name="PARTICIPATION" sheetId="6" r:id="rId6"/>
     <sheet name="MEMBER" sheetId="7" r:id="rId7"/>
-    <sheet name="DEDUCTIONFOROTHER" sheetId="8" r:id="rId8"/>
+    <sheet name="ALLOCATIONRESERVES" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -31,26 +31,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
   <si>
     <t>year</t>
   </si>
   <si>
-    <t>OrganisationName</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cooperativa Agrícola de Barcelos </t>
   </si>
   <si>
-    <t>OrganisationURL</t>
-  </si>
-  <si>
     <t>http://www.agribar.pt/</t>
   </si>
   <si>
-    <t>typeOfOrganisation</t>
-  </si>
-  <si>
     <t>Cooperativa</t>
   </si>
   <si>
@@ -78,24 +69,12 @@
     <t>resultsSurpluses</t>
   </si>
   <si>
-    <t>profitsThirdPartyResults</t>
-  </si>
-  <si>
-    <t>profitsExtraordinaryResults</t>
-  </si>
-  <si>
     <t>yearNetProfit</t>
   </si>
   <si>
-    <t>deductionForLegalReserve</t>
-  </si>
-  <si>
     <t>1.530.249,85</t>
   </si>
   <si>
-    <t>deductionForEducationAndTrainingReserve</t>
-  </si>
-  <si>
     <t>8.930.788,68</t>
   </si>
   <si>
@@ -105,27 +84,9 @@
     <t>interestPayment</t>
   </si>
   <si>
-    <t>allocationToVoluntaryReserves</t>
-  </si>
-  <si>
-    <t>totalOrganisationRefunds</t>
-  </si>
-  <si>
-    <t>lossTreatmentLiabilities</t>
-  </si>
-  <si>
-    <t>lossTreatmentLossesGeneratedByMembers</t>
-  </si>
-  <si>
     <t>allocatioOfProfitsIndivisiblesReserves</t>
   </si>
   <si>
-    <t>deliversRefunds</t>
-  </si>
-  <si>
-    <t>appliesOtherDeduction</t>
-  </si>
-  <si>
     <t>DED1</t>
   </si>
   <si>
@@ -273,9 +234,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>percentageTotalOrganisationRefunds</t>
-  </si>
-  <si>
     <t>participatesInBoard</t>
   </si>
   <si>
@@ -313,6 +271,42 @@
   </si>
   <si>
     <t>&gt;=5%</t>
+  </si>
+  <si>
+    <t>profitsNonMemberyResults</t>
+  </si>
+  <si>
+    <t>profitsExtraEntityResults</t>
+  </si>
+  <si>
+    <t>allocationForLegalReserve</t>
+  </si>
+  <si>
+    <t>allocationForEducationAndTrainingReserve</t>
+  </si>
+  <si>
+    <t>treatmentOfLiabilitiesDebts</t>
+  </si>
+  <si>
+    <t>treatmentOfLiabilitiesLosses</t>
+  </si>
+  <si>
+    <t>distributionOfReturns</t>
+  </si>
+  <si>
+    <t>otherDeduction</t>
+  </si>
+  <si>
+    <t>amountOfRefunds</t>
+  </si>
+  <si>
+    <t>typeOfEntity</t>
+  </si>
+  <si>
+    <t>entityName</t>
+  </si>
+  <si>
+    <t>entityURL</t>
   </si>
 </sst>
 </file>
@@ -347,18 +341,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -447,7 +435,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -464,6 +451,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -813,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:B5"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -836,35 +824,38 @@
     </row>
     <row r="2" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>4</v>
+        <v>90</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>6</v>
+        <v>91</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>8</v>
-      </c>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -896,15 +887,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" s="9"/>
     </row>
@@ -923,7 +914,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -934,38 +925,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>12</v>
+      <c r="A1" s="22" t="s">
+        <v>9</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>13</v>
+      <c r="A2" s="22" t="s">
+        <v>10</v>
       </c>
       <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>14</v>
+      <c r="A3" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="B4" s="9"/>
     </row>
     <row r="5" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B6" s="9">
         <v>242085.18</v>
@@ -985,13 +976,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD15"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="55.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="45" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="1025" width="8.85546875" customWidth="1"/>
@@ -999,88 +990,74 @@
   <sheetData>
     <row r="1" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="10">
-        <v>0</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B3" s="10"/>
     </row>
     <row r="4" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>23</v>
+      <c r="A4" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>25</v>
+      <c r="A6" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>26</v>
+      <c r="A7" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>27</v>
+      <c r="A8" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="9"/>
+      <c r="A9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1114,22 +1091,22 @@
   <sheetData>
     <row r="1" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1142,39 +1119,39 @@
     </row>
     <row r="3" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B4" s="10">
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E4" s="10">
         <v>3</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H4" s="10">
         <v>3</v>
@@ -1182,62 +1159,62 @@
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1340,61 +1317,61 @@
   <sheetData>
     <row r="1" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B3" s="9">
         <v>2016</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E3" s="9">
         <v>2016</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H3" s="9">
         <v>2016</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K3" s="9">
         <v>2016</v>
@@ -1402,25 +1379,25 @@
     </row>
     <row r="4" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B4" s="9">
         <v>2019</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E4" s="9">
         <v>2019</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H4" s="9">
         <v>2019</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K4" s="9">
         <v>2019</v>
@@ -1428,139 +1405,139 @@
     </row>
     <row r="5" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>57</v>
+        <v>43</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>58</v>
+        <v>43</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>59</v>
+        <v>43</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>60</v>
+        <v>43</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>33</v>
+        <v>48</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>33</v>
+        <v>48</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>33</v>
+        <v>48</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>62</v>
+        <v>48</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B11" s="9">
         <v>2016</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E11" s="9">
         <v>2016</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H11" s="9">
         <v>2016</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K11" s="9">
         <v>2016</v>
@@ -1568,25 +1545,25 @@
     </row>
     <row r="12" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B12" s="9">
         <v>2019</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E12" s="9">
         <v>2019</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H12" s="9">
         <v>2019</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K12" s="9">
         <v>2019</v>
@@ -1594,88 +1571,88 @@
     </row>
     <row r="13" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>65</v>
+        <v>43</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>52</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>66</v>
+        <v>43</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>67</v>
+        <v>43</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>68</v>
+        <v>43</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>62</v>
+        <v>48</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>62</v>
+        <v>48</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>69</v>
+        <v>48</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>56</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>69</v>
+        <v>48</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -1702,7 +1679,7 @@
     </row>
     <row r="20" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B20" s="9">
         <v>2016</v>
@@ -1719,7 +1696,7 @@
     </row>
     <row r="21" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B21" s="9">
         <v>2019</v>
@@ -1736,10 +1713,10 @@
     </row>
     <row r="22" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -1753,36 +1730,36 @@
     </row>
     <row r="23" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>70</v>
+        <v>43</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="19"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="5"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="19"/>
+      <c r="H23" s="18"/>
       <c r="I23" s="5"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="19"/>
+      <c r="K23" s="18"/>
       <c r="L23" s="5"/>
     </row>
     <row r="24" spans="1:12" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>62</v>
+        <v>48</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="19"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="5"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="19"/>
+      <c r="H24" s="18"/>
       <c r="I24" s="5"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="19"/>
+      <c r="K24" s="18"/>
       <c r="L24" s="5"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1832,8 +1809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A18" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1851,22 +1828,22 @@
   <sheetData>
     <row r="1" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1875,124 +1852,124 @@
     </row>
     <row r="3" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>74</v>
+        <v>21</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>76</v>
+        <v>21</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B4" s="9"/>
       <c r="D4" s="8" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E4" s="9"/>
       <c r="G4" s="8" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B6" s="9"/>
       <c r="D6" s="8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E6" s="9"/>
       <c r="G6" s="8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B8" s="9"/>
       <c r="D8" s="8" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E8" s="9"/>
       <c r="G8" s="8" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="H8" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2001,124 +1978,124 @@
     </row>
     <row r="13" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>83</v>
+        <v>21</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>85</v>
+        <v>21</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B14" s="9"/>
       <c r="D14" s="8" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E14" s="9"/>
       <c r="G14" s="8" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B16" s="9"/>
       <c r="D16" s="8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E16" s="9"/>
       <c r="G16" s="8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B18" s="9"/>
       <c r="D18" s="8" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E18" s="9"/>
       <c r="G18" s="8" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="H18" s="9"/>
     </row>
     <row r="20" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>82</v>
-      </c>
       <c r="H20" s="9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2127,103 +2104,103 @@
     </row>
     <row r="22" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>86</v>
+        <v>21</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>87</v>
+        <v>21</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>88</v>
+        <v>21</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B23" s="9"/>
       <c r="D23" s="8" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E23" s="9"/>
       <c r="G23" s="8" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B25" s="9"/>
       <c r="D25" s="8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E25" s="9"/>
       <c r="G25" s="8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B27" s="9"/>
       <c r="D27" s="8" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E27" s="9"/>
       <c r="G27" s="8" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="H27" s="9"/>
     </row>
@@ -2241,7 +2218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD10"/>
     </sheetView>
   </sheetViews>
@@ -2254,10 +2231,10 @@
   <sheetData>
     <row r="1" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>31</v>
+        <v>75</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
@@ -2268,10 +2245,10 @@
     </row>
     <row r="3" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>91</v>
+        <v>76</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
@@ -2282,10 +2259,10 @@
     </row>
     <row r="4" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>93</v>
+        <v>78</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="2"/>
